--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-对比.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06818A5-E82C-4EAD-AFF4-D2489F1AE4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4452C-B6AE-49CE-A0EE-7AA8371ACAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,60 +61,6 @@
     <t>edge_count</t>
   </si>
   <si>
-    <t>As-Caida</t>
-  </si>
-  <si>
-    <t>P2p-Gnutella31</t>
-  </si>
-  <si>
-    <t>Email-EuAll</t>
-  </si>
-  <si>
-    <t>Soc-Slashdot0922</t>
-  </si>
-  <si>
-    <t>Web-NotreDame</t>
-  </si>
-  <si>
-    <t>Com-Dblp</t>
-  </si>
-  <si>
-    <t>Amazon0601</t>
-  </si>
-  <si>
-    <t>RoadNet-CA</t>
-  </si>
-  <si>
-    <t>Wiki-Talk</t>
-  </si>
-  <si>
-    <t>Web-BerkStan</t>
-  </si>
-  <si>
-    <t>Cit-Patents</t>
-  </si>
-  <si>
-    <t>Soc-Pokec</t>
-  </si>
-  <si>
-    <t>Sx-Stackoverflow</t>
-  </si>
-  <si>
-    <t>Com-Lj</t>
-  </si>
-  <si>
-    <t>Soc-LiveJ</t>
-  </si>
-  <si>
-    <t>Com-Orkut</t>
-  </si>
-  <si>
-    <t>Twitter7</t>
-  </si>
-  <si>
-    <t>Com-Friendster</t>
-  </si>
-  <si>
     <t>cluster2-s20-e2</t>
   </si>
   <si>
@@ -238,10 +184,6 @@
     <t>x6</t>
   </si>
   <si>
-    <t>As-Skitter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>baseline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,6 +229,82 @@
   </si>
   <si>
     <t>Gx6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Am</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +715,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,46 +739,46 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -769,42 +787,42 @@
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>36365</v>
@@ -898,7 +916,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>2024</v>
@@ -981,7 +999,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>267313</v>
@@ -1064,7 +1082,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>602592</v>
@@ -1147,7 +1165,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>8910005</v>
@@ -1230,7 +1248,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>2224385</v>
@@ -1313,7 +1331,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -1396,7 +1414,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -1479,7 +1497,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -1562,7 +1580,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -1645,7 +1663,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -1811,7 +1829,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1894,7 +1912,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -1977,7 +1995,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -2060,7 +2078,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -2143,7 +2161,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -2226,7 +2244,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -2309,7 +2327,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>4173724142</v>
@@ -2392,7 +2410,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>3966418</v>
@@ -2475,7 +2493,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>20219754</v>
@@ -2558,7 +2576,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>95652855</v>
@@ -2641,7 +2659,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>420642337</v>
@@ -2724,7 +2742,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>1726926306</v>
@@ -2807,7 +2825,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>6619001657</v>
@@ -2890,7 +2908,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>23750654538</v>
@@ -2973,7 +2991,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>79941782408</v>
@@ -3056,7 +3074,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>252743155375</v>
@@ -3139,7 +3157,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>752157328768</v>
@@ -3222,7 +3240,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>135616399</v>
@@ -3305,7 +3323,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>319298964</v>
@@ -3388,7 +3406,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>745161019</v>
@@ -3471,7 +3489,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>1726926306</v>
@@ -3554,7 +3572,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>3964459518</v>
@@ -3637,7 +3655,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>9055827800</v>
@@ -3720,7 +3738,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>20579400628</v>
@@ -3803,7 +3821,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>46556649365</v>
@@ -3886,7 +3904,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>477229224</v>
@@ -3969,7 +3987,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>1160044284</v>
@@ -4052,7 +4070,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>2785011513</v>
@@ -4135,7 +4153,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>6619001657</v>
@@ -4218,7 +4236,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>15576517960</v>
@@ -4301,7 +4319,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>36384441697</v>
@@ -4384,7 +4402,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>84400047392</v>
@@ -4467,7 +4485,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>194527574673</v>

--- a/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-对比.xlsx
+++ b/draw_graph/xiaorong_for_GroupTC-BS/GroupTC-BS-对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\xiaorong_for_GroupTC-BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4452C-B6AE-49CE-A0EE-7AA8371ACAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF891C3-5DC9-425E-849F-2463BC284820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,11 +292,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
+    <t>CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CF</t>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>3986507</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>120676</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>9203519</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>64690980</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>28769868</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>7515023</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>32557458</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>114206974</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>177820130</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>285730264</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>627584181</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>34824916864</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>4173724142</v>
